--- a/examples/Книга1.xlsx
+++ b/examples/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEP\prctise_pret\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9E5F68-BC26-41C6-9129-7BF85EC44BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4028FD99-896B-4EB8-BD74-4ED79937D838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{A368692B-0FCD-49A2-ACD4-6C9BE5758B6F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>ТОВ Прикарпатенерготрейд</t>
   </si>
@@ -884,15 +884,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" customWidth="1"/>
     <col min="2" max="3" width="1.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.8984375" bestFit="1" customWidth="1"/>
@@ -987,6 +987,84 @@
         <v>3</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>42129720</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>328168</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45443</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>37951998</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2">
+        <v>101</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
